--- a/dailySenarios.xlsx
+++ b/dailySenarios.xlsx
@@ -14,38 +14,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>Java is a high-level programming language originally developed by Sun Microsystems and released in 1995. Java runs on a variety of platforms, such as Windows, Mac OS, and the various versions of UNIX. This tutorial gives a complete understanding of Java. This reference will take you through simple and practical approaches while learning Java Programming language.</t>
-  </si>
-  <si>
-    <t>Meet industry-specific needs
-Harness proven best practices and built-in processes for a wide range of industries – from manufacturing and distribution to professional services and retail.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>CyberArk</t>
+  </si>
+  <si>
+    <t>Sailpoint</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>C,C++</t>
+  </si>
+  <si>
+    <t>SalesForce</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>QlikView</t>
+  </si>
+  <si>
+    <t>Cognos</t>
+  </si>
+  <si>
+    <t>PreRequisites : Basic knowledge on Servers(Windows,Linux,Unix) and Active Directory knowledge Duration : 1 month(1 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites :Good knowledge of Core Java and Oracle, SQL.
+Duration : 20 Days (1.5 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Basic back ground of how any query language works eg sql.                                      Duration : Basic development training of splunk in 1 - 3 week's  &amp; 3 to 5 weeks for admin training (1 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Knowledge on Linux(advantage if AWS and Azure knowledge)                              Duration : 2.5 months for all tools like(Puppet,Chef,Ansible,Github,Bamboo,Docker,Nagios) (1 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Should have some skills related to basic concepts of Operating Systems : Windows, Linux and a bit of basic concepts about them and Virtualization Technologies added advantage                              Duration : 1.5 months (1 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : For Learning C language there is no prereqs and for learning C++ , C language is knowledge is required                                                                                                                                                Duration : 1 month(1.5 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : For Salesforce Developer basic understaing of HTML and Core java or any programming language &amp;  For Salesforce Admin there is no prereqs.                                                                                                                                    Duration : 1 month(2 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Knowledge on Core Java and SQL Queries and database like Oracle, MySql      Duration : 1 month(1.5 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Knowledge on Data ware housing concepts, SQL                                                                    Duration : 1 month(1.5 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Knowledge on Data ware housing concepts,SQL                                   Duration : 1 month(1.5 hour per  day)</t>
+  </si>
+  <si>
+    <t>PreRequisites : Knowledge on Data ware housing concepts,SQL                                                                    Duration : 1 month(1.5 hour per  day)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,10 +104,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -68,15 +142,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,41 +498,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
